--- a/OracleBenchmarks.xlsx
+++ b/OracleBenchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramm/Documents/Projekte/rammpeter.github/oracle_benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAEDE35-19BF-C347-B9C7-3D99D55287CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E185DD0-A782-8144-AEF1-9084588A6AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="2260" windowWidth="28240" windowHeight="17240" activeTab="1" xr2:uid="{94BF2A6F-DF63-3D44-AC4F-74C7E5880432}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Benchmark results for Oracle Database</t>
   </si>
@@ -87,16 +87,10 @@
     <t>- Full scan 2 columns: Full scan of only 2 of 134 rows for first 1,000,000 records of a partition (100% cache hits)</t>
   </si>
   <si>
-    <t>- Direct full scan all columns: Full scan with direct path read of all 134 rows for first 1,000,000 records of a partition</t>
-  </si>
-  <si>
     <t>- Search scan 2 columns: Nondirect full table scan without fetch of a whole partition with 8 mio. records and 2 filter columns (100% cache hits)</t>
   </si>
   <si>
     <t>- Search scan direct 2 columns: direct path full table scan without fetch of a whole partition with 8 mio. records and 2 filter columns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full </t>
   </si>
   <si>
     <t>Access by rowID</t>
@@ -113,13 +107,38 @@
   <si>
     <t xml:space="preserve"> Time (sec.)</t>
   </si>
+  <si>
+    <t>Buffer gets per row</t>
+  </si>
+  <si>
+    <t>Full scan only 2 columns</t>
+  </si>
+  <si>
+    <t>CPU (sec.)</t>
+  </si>
+  <si>
+    <t>Direct full scan all columns</t>
+  </si>
+  <si>
+    <t>- Direct full scan all columns: Full scan with direct path read (PARALLEL 2) of all 134 rows for first 1,000,000 records of a partition</t>
+  </si>
+  <si>
+    <t>Search scan 2 columns</t>
+  </si>
+  <si>
+    <t>Search scan direct 2 columns</t>
+  </si>
+  <si>
+    <t>Buffer gets total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -153,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,29 +180,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -199,6 +242,2015 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compression Table 2023-01'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Time per rowid (ms)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>buffer gets per rowid</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Size (MB)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Compression time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Access by rowID</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Full scan only 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Direct full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Search scan 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Search scan direct 2 columns</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compression Table 2023-01'!$B$13:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2638</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>17.033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>14.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>20.683</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>4.07E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.218</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>336262</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>336377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-637A-1144-B310-ED9FA18095ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compression Table 2023-01'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROW STORE COMPRESS BASIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Time per rowid (ms)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>buffer gets per rowid</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Size (MB)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Compression time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Access by rowID</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Full scan only 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Direct full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Search scan 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Search scan direct 2 columns</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compression Table 2023-01'!$B$14:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>17.68</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>15.409000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>3.0999999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-637A-1144-B310-ED9FA18095ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compression Table 2023-01'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROW STORE COMPRESS ADVANCED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Time per rowid (ms)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>buffer gets per rowid</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Size (MB)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Compression time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Access by rowID</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Full scan only 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Direct full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Search scan 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Search scan direct 2 columns</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compression Table 2023-01'!$B$15:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>14.478999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>19.963000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22241</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-637A-1144-B310-ED9FA18095ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compression Table 2023-01'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COLUMN STORE COMPRESS FOR QUERY LOW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Time per rowid (ms)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>buffer gets per rowid</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Size (MB)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Compression time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Access by rowID</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Full scan only 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Direct full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Search scan 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Search scan direct 2 columns</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compression Table 2023-01'!$B$16:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.73</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>15.792</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>14.757999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>18.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9300000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21064</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-637A-1144-B310-ED9FA18095ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compression Table 2023-01'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COLUMN STORE COMPRESS FOR QUERY HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Time per rowid (ms)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>buffer gets per rowid</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Size (MB)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Compression time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Access by rowID</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Full scan only 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Direct full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Search scan 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Search scan direct 2 columns</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compression Table 2023-01'!$B$17:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>16.425999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>14.808999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>18.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10885</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.2399999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-637A-1144-B310-ED9FA18095ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compression Table 2023-01'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COLUMN STORE COMPRESS FOR ARCHIVE LOW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Time per rowid (ms)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>buffer gets per rowid</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Size (MB)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Compression time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Access by rowID</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Full scan only 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Direct full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Search scan 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Search scan direct 2 columns</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compression Table 2023-01'!$B$18:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.01</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>16.716000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>14.821</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>18.61</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7915</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-637A-1144-B310-ED9FA18095ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compression Table 2023-01'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COLUMN STORE COMPRESS FOR ARCHIVE HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Time per rowid (ms)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>buffer gets per rowid</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Buffer gets per row</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v> Time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CPU (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Buffer gets total</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Size (MB)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Compression time (sec.)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Access by rowID</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Full scan only 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Direct full scan all columns</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Search scan 2 columns</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Search scan direct 2 columns</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compression Table 2023-01'!$B$19:$Q$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.34</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>16.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.146000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>14.146000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6668</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-637A-1144-B310-ED9FA18095ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="153075487"/>
+        <c:axId val="164827679"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153075487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164827679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164827679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153075487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1435100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD1775B-39A6-666C-C860-08E31109232D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,211 +2570,523 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC0EE75-4D97-7149-ABEE-2D40575DB096}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="10.83203125" style="6"/>
+    <col min="10" max="11" width="10.83203125" style="4"/>
+    <col min="12" max="12" width="10.83203125" style="6"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+    <row r="12" spans="1:17" s="3" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
+    <row r="13" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2638</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>17.033000000000001</v>
+      </c>
+      <c r="G13" s="16">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="I13" s="14">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="J13" s="15">
+        <v>14.832000000000001</v>
+      </c>
+      <c r="K13" s="15">
+        <v>20.683</v>
+      </c>
+      <c r="L13" s="16">
+        <v>4.07E-2</v>
+      </c>
+      <c r="M13" s="14">
+        <v>1.218</v>
+      </c>
+      <c r="N13" s="14">
+        <v>336262</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0.187</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>336377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
+        <v>158</v>
+      </c>
+      <c r="C14" s="14">
+        <v>128</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>17.68</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1.24E-2</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1.641</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="J14" s="15">
+        <v>15.409000000000001</v>
+      </c>
+      <c r="K14" s="15">
         <v>20</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="11"/>
+      <c r="L14" s="16">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
+    <row r="15" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="14">
+        <v>178</v>
+      </c>
+      <c r="C15" s="14">
+        <v>83</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>18</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="J15" s="15">
+        <v>14.478999999999999</v>
+      </c>
+      <c r="K15" s="15">
+        <v>19.963000000000001</v>
+      </c>
+      <c r="L15" s="16">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="N15" s="14">
+        <v>22241</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>22358</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2638</v>
-      </c>
-      <c r="D13" s="7">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
+    <row r="16" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="14">
+        <v>106</v>
+      </c>
+      <c r="C16" s="14">
+        <v>150</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.19</v>
+      </c>
+      <c r="E16" s="14">
+        <v>5.73</v>
+      </c>
+      <c r="F16" s="15">
+        <v>15.792</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1.23E-2</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="J16" s="15">
+        <v>14.757999999999999</v>
+      </c>
+      <c r="K16" s="15">
+        <v>18.475999999999999</v>
+      </c>
+      <c r="L16" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="M16" s="14">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="N16" s="14">
+        <v>21064</v>
+      </c>
+      <c r="O16" s="14">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>21200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7"/>
+    <row r="17" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="14">
+        <v>54</v>
+      </c>
+      <c r="C17" s="14">
+        <v>216</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.51</v>
+      </c>
+      <c r="E17" s="14">
+        <v>4.68</v>
+      </c>
+      <c r="F17" s="15">
+        <v>16.425999999999998</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="J17" s="15">
+        <v>14.808999999999999</v>
+      </c>
+      <c r="K17" s="15">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="L17" s="16">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="N17" s="14">
+        <v>10885</v>
+      </c>
+      <c r="O17" s="14">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>10942</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2">
-        <v>178</v>
-      </c>
-      <c r="C15" s="2">
-        <v>83</v>
-      </c>
-      <c r="D15" s="7">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
+    <row r="18" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="14">
+        <v>46</v>
+      </c>
+      <c r="C18" s="14">
+        <v>204</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="14">
+        <v>8.01</v>
+      </c>
+      <c r="F18" s="15">
+        <v>16.716000000000001</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J18" s="15">
+        <v>14.821</v>
+      </c>
+      <c r="K18" s="15">
+        <v>18.61</v>
+      </c>
+      <c r="L18" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0.128</v>
+      </c>
+      <c r="N18" s="14">
+        <v>7915</v>
+      </c>
+      <c r="O18" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>8046</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2">
-        <v>106</v>
-      </c>
-      <c r="C16" s="2">
-        <v>150</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5.73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2">
-        <v>54</v>
-      </c>
-      <c r="C17" s="2">
-        <v>216</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="19" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="14">
         <v>46</v>
       </c>
-      <c r="C18" s="2">
-        <v>204</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="E18" s="2">
-        <v>8.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2">
-        <v>46</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="C19" s="14">
         <v>410</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="15">
         <v>16.2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="14">
         <v>11.34</v>
+      </c>
+      <c r="F19" s="15">
+        <v>16.265000000000001</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1.06E-2</v>
+      </c>
+      <c r="H19" s="14">
+        <v>14.146000000000001</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J19" s="15">
+        <v>14.146000000000001</v>
+      </c>
+      <c r="K19" s="15">
+        <v>18.8</v>
+      </c>
+      <c r="L19" s="16">
+        <v>1.5E-3</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="N19" s="14">
+        <v>6668</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>6749</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/OracleBenchmarks.xlsx
+++ b/OracleBenchmarks.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramm/Documents/Projekte/rammpeter.github/oracle_benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E185DD0-A782-8144-AEF1-9084588A6AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C000E3-D03A-4245-B6BE-D36AF19FF5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="2260" windowWidth="28240" windowHeight="17240" activeTab="1" xr2:uid="{94BF2A6F-DF63-3D44-AC4F-74C7E5880432}"/>
+    <workbookView xWindow="3160" yWindow="2260" windowWidth="28240" windowHeight="17240" activeTab="2" xr2:uid="{94BF2A6F-DF63-3D44-AC4F-74C7E5880432}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Compression Table 2023-01" sheetId="2" r:id="rId2"/>
+    <sheet name="2023-01 Compr. Table Exadata" sheetId="2" r:id="rId2"/>
+    <sheet name="2023-05 Compr. Table Linux" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>Benchmark results for Oracle Database</t>
   </si>
@@ -130,6 +131,15 @@
   </si>
   <si>
     <t>Buffer gets total</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.18 auf Exadata X6-2L High Capacity </t>
+  </si>
+  <si>
+    <t>19.3 auf Linux 6 CPU DB in Docker</t>
   </si>
 </sst>
 </file>
@@ -299,7 +309,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compression Table 2023-01'!$A$13</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -322,7 +332,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$14:$Q$15</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="16"/>
                 <c:lvl>
@@ -400,7 +410,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compression Table 2023-01'!$B$13:$Q$13</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$16:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -464,7 +474,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compression Table 2023-01'!$A$14</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -487,7 +497,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$14:$Q$15</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="16"/>
                 <c:lvl>
@@ -565,7 +575,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compression Table 2023-01'!$B$14:$Q$14</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$17:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -617,7 +627,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compression Table 2023-01'!$A$15</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -640,7 +650,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$14:$Q$15</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="16"/>
                 <c:lvl>
@@ -718,7 +728,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compression Table 2023-01'!$B$15:$Q$15</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$18:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -785,7 +795,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compression Table 2023-01'!$A$16</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -808,7 +818,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$14:$Q$15</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="16"/>
                 <c:lvl>
@@ -886,7 +896,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compression Table 2023-01'!$B$16:$Q$16</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$19:$Q$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -953,7 +963,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compression Table 2023-01'!$A$17</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -976,7 +986,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$14:$Q$15</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="16"/>
                 <c:lvl>
@@ -1054,7 +1064,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compression Table 2023-01'!$B$17:$Q$17</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$20:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1121,7 +1131,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compression Table 2023-01'!$A$18</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1144,7 +1154,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$14:$Q$15</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="16"/>
                 <c:lvl>
@@ -1222,7 +1232,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compression Table 2023-01'!$B$18:$Q$18</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$21:$Q$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1289,7 +1299,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compression Table 2023-01'!$A$19</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1314,7 +1324,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Compression Table 2023-01'!$B$11:$Q$12</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$14:$Q$15</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="16"/>
                 <c:lvl>
@@ -1392,7 +1402,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compression Table 2023-01'!$B$19:$Q$19</c:f>
+              <c:f>'2023-01 Compr. Table Exadata'!$B$22:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2218,13 +2228,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1435100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2570,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC0EE75-4D97-7149-ABEE-2D40575DB096}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2588,505 +2598,805 @@
     <col min="16" max="16" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9" t="s">
+      <c r="G14" s="8"/>
+      <c r="H14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9" t="s">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9" t="s">
+      <c r="N14" s="9"/>
+      <c r="O14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="10" t="s">
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="14">
-        <v>2638</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15">
-        <v>17.033000000000001</v>
-      </c>
-      <c r="G13" s="16">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="I13" s="14">
-        <v>4.9700000000000001E-2</v>
-      </c>
-      <c r="J13" s="15">
-        <v>14.832000000000001</v>
-      </c>
-      <c r="K13" s="15">
-        <v>20.683</v>
-      </c>
-      <c r="L13" s="16">
-        <v>4.07E-2</v>
-      </c>
-      <c r="M13" s="14">
-        <v>1.218</v>
-      </c>
-      <c r="N13" s="14">
-        <v>336262</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="P13" s="14">
-        <v>0.187</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>336377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14">
-        <v>158</v>
-      </c>
-      <c r="C14" s="14">
-        <v>128</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15">
-        <v>17.68</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1.24E-2</v>
-      </c>
-      <c r="H14" s="14">
-        <v>1.641</v>
-      </c>
-      <c r="I14" s="14">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="J14" s="15">
-        <v>15.409000000000001</v>
-      </c>
-      <c r="K14" s="15">
-        <v>20</v>
-      </c>
-      <c r="L14" s="16">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-    </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="14">
-        <v>178</v>
-      </c>
-      <c r="C15" s="14">
-        <v>83</v>
-      </c>
-      <c r="D15" s="15">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15">
-        <v>18</v>
-      </c>
-      <c r="G15" s="16">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="H15" s="14">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="I15" s="14">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="J15" s="15">
-        <v>14.478999999999999</v>
-      </c>
-      <c r="K15" s="15">
-        <v>19.963000000000001</v>
-      </c>
-      <c r="L15" s="16">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0.66</v>
-      </c>
-      <c r="N15" s="14">
-        <v>22241</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>22358</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="14">
-        <v>106</v>
-      </c>
-      <c r="C16" s="14">
-        <v>150</v>
-      </c>
+        <v>2638</v>
+      </c>
+      <c r="C16" s="14"/>
       <c r="D16" s="15">
-        <v>0.19</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E16" s="14">
-        <v>5.73</v>
+        <v>1</v>
       </c>
       <c r="F16" s="15">
-        <v>15.792</v>
+        <v>17.033000000000001</v>
       </c>
       <c r="G16" s="16">
-        <v>1.23E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H16" s="14">
-        <v>0.55400000000000005</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="I16" s="14">
-        <v>1.1599999999999999E-2</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="J16" s="15">
-        <v>14.757999999999999</v>
+        <v>14.832000000000001</v>
       </c>
       <c r="K16" s="15">
-        <v>18.475999999999999</v>
+        <v>20.683</v>
       </c>
       <c r="L16" s="16">
-        <v>2E-3</v>
+        <v>4.07E-2</v>
       </c>
       <c r="M16" s="14">
-        <v>8.9300000000000004E-2</v>
+        <v>1.218</v>
       </c>
       <c r="N16" s="14">
-        <v>21064</v>
+        <v>336262</v>
       </c>
       <c r="O16" s="14">
-        <v>5.6599999999999998E-2</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="P16" s="14">
-        <v>0.11</v>
+        <v>0.187</v>
       </c>
       <c r="Q16" s="14">
-        <v>21200</v>
+        <v>336377</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B17" s="14">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="C17" s="14">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="D17" s="15">
-        <v>0.51</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="E17" s="14">
-        <v>4.68</v>
+        <v>1</v>
       </c>
       <c r="F17" s="15">
-        <v>16.425999999999998</v>
+        <v>17.68</v>
       </c>
       <c r="G17" s="16">
-        <v>1.0999999999999999E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="H17" s="14">
-        <v>0.57299999999999995</v>
+        <v>1.641</v>
       </c>
       <c r="I17" s="14">
-        <v>1.0699999999999999E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="J17" s="15">
-        <v>14.808999999999999</v>
+        <v>15.409000000000001</v>
       </c>
       <c r="K17" s="15">
-        <v>18.559999999999999</v>
+        <v>20</v>
       </c>
       <c r="L17" s="16">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="M17" s="14">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="N17" s="14">
-        <v>10885</v>
-      </c>
-      <c r="O17" s="14">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="P17" s="14">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>10942</v>
-      </c>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18" s="14">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="C18" s="14">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="D18" s="15">
-        <v>0.9</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="E18" s="14">
-        <v>8.01</v>
+        <v>1</v>
       </c>
       <c r="F18" s="15">
-        <v>16.716000000000001</v>
+        <v>18</v>
       </c>
       <c r="G18" s="16">
-        <v>1.0699999999999999E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="H18" s="14">
-        <v>0.58499999999999996</v>
+        <v>1.1919999999999999</v>
       </c>
       <c r="I18" s="14">
-        <v>1.0500000000000001E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="J18" s="15">
-        <v>14.821</v>
+        <v>14.478999999999999</v>
       </c>
       <c r="K18" s="15">
-        <v>18.61</v>
+        <v>19.963000000000001</v>
       </c>
       <c r="L18" s="16">
-        <v>2E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="M18" s="14">
-        <v>0.128</v>
+        <v>0.66</v>
       </c>
       <c r="N18" s="14">
-        <v>7915</v>
+        <v>22241</v>
       </c>
       <c r="O18" s="14">
-        <v>7.6499999999999999E-2</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="P18" s="14">
-        <v>0.14299999999999999</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="Q18" s="14">
-        <v>8046</v>
+        <v>22358</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="14">
+        <v>106</v>
+      </c>
+      <c r="C19" s="14">
+        <v>150</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.19</v>
+      </c>
+      <c r="E19" s="14">
+        <v>5.73</v>
+      </c>
+      <c r="F19" s="15">
+        <v>15.792</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1.23E-2</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="J19" s="15">
+        <v>14.757999999999999</v>
+      </c>
+      <c r="K19" s="15">
+        <v>18.475999999999999</v>
+      </c>
+      <c r="L19" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="M19" s="14">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="N19" s="14">
+        <v>21064</v>
+      </c>
+      <c r="O19" s="14">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="14">
+        <v>54</v>
+      </c>
+      <c r="C20" s="14">
+        <v>216</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.51</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4.68</v>
+      </c>
+      <c r="F20" s="15">
+        <v>16.425999999999998</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="J20" s="15">
+        <v>14.808999999999999</v>
+      </c>
+      <c r="K20" s="15">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="L20" s="16">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="N20" s="14">
+        <v>10885</v>
+      </c>
+      <c r="O20" s="14">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>10942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="14">
+        <v>46</v>
+      </c>
+      <c r="C21" s="14">
+        <v>204</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="14">
+        <v>8.01</v>
+      </c>
+      <c r="F21" s="15">
+        <v>16.716000000000001</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J21" s="15">
+        <v>14.821</v>
+      </c>
+      <c r="K21" s="15">
+        <v>18.61</v>
+      </c>
+      <c r="L21" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0.128</v>
+      </c>
+      <c r="N21" s="14">
+        <v>7915</v>
+      </c>
+      <c r="O21" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>8046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B22" s="14">
         <v>46</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C22" s="14">
         <v>410</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D22" s="15">
         <v>16.2</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E22" s="14">
         <v>11.34</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F22" s="15">
         <v>16.265000000000001</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G22" s="16">
         <v>1.06E-2</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H22" s="14">
         <v>14.146000000000001</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I22" s="14">
         <v>1.04E-2</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J22" s="15">
         <v>14.146000000000001</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K22" s="15">
         <v>18.8</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L22" s="16">
         <v>1.5E-3</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M22" s="14">
         <v>0.63300000000000001</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N22" s="14">
         <v>6668</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O22" s="14">
         <v>0.33100000000000002</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P22" s="14">
         <v>0.64700000000000002</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q22" s="14">
         <v>6749</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D107C97-A11C-3242-B295-1DA8D8BA921C}">
+  <dimension ref="A2:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="10.83203125" style="6"/>
+    <col min="10" max="11" width="10.83203125" style="4"/>
+    <col min="12" max="12" width="10.83203125" style="6"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2624</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>13.01</v>
+      </c>
+      <c r="G16" s="16">
+        <v>5.04E-2</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="I16" s="14">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="J16" s="15">
+        <v>18.571999999999999</v>
+      </c>
+      <c r="K16" s="15">
+        <v>18.646999999999998</v>
+      </c>
+      <c r="L16" s="16">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="N16" s="14">
+        <v>335084</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>398099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14">
+        <v>168</v>
+      </c>
+      <c r="C17" s="14">
+        <v>63</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.308</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>17.242000000000001</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1.431</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J17" s="15">
+        <v>14.965999999999999</v>
+      </c>
+      <c r="K17" s="15">
+        <v>21.323</v>
+      </c>
+      <c r="L17" s="16">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>20920</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OracleBenchmarks.xlsx
+++ b/OracleBenchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramm/Documents/Projekte/rammpeter.github/oracle_benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C000E3-D03A-4245-B6BE-D36AF19FF5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96D73BC-448B-DB47-9A18-C9150C5FF9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="2260" windowWidth="28240" windowHeight="17240" activeTab="2" xr2:uid="{94BF2A6F-DF63-3D44-AC4F-74C7E5880432}"/>
   </bookViews>
@@ -3114,7 +3114,7 @@
   <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3323,7 +3323,7 @@
         <v>168</v>
       </c>
       <c r="C17" s="14">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17" s="15">
         <v>0.308</v>
@@ -3344,46 +3344,82 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="J17" s="15">
-        <v>14.965999999999999</v>
+        <v>13.744</v>
       </c>
       <c r="K17" s="15">
-        <v>21.323</v>
+        <v>18.977</v>
       </c>
       <c r="L17" s="16">
-        <v>2.8E-3</v>
-      </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="N17" s="14">
+        <v>20812</v>
+      </c>
       <c r="O17" s="14">
-        <v>0.33600000000000002</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="P17" s="14">
-        <v>0.64300000000000002</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="Q17" s="14">
-        <v>20920</v>
+        <v>21137</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="B18" s="14">
+        <v>168</v>
+      </c>
+      <c r="C18" s="14">
+        <v>60</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
+        <v>16.956</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J18" s="15">
+        <v>14.182</v>
+      </c>
+      <c r="K18" s="15">
+        <v>19.933</v>
+      </c>
+      <c r="L18" s="16">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0.626</v>
+      </c>
+      <c r="N18" s="14">
+        <v>20812</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>21115</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/OracleBenchmarks.xlsx
+++ b/OracleBenchmarks.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramm/Documents/Projekte/rammpeter.github/oracle_benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1EB42F-B731-1D4C-9069-6DAC5146A0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AD5761-7585-3947-9468-DBB179C7AC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33400" windowHeight="21100" activeTab="1" xr2:uid="{94BF2A6F-DF63-3D44-AC4F-74C7E5880432}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33220" windowHeight="21100" activeTab="3" xr2:uid="{94BF2A6F-DF63-3D44-AC4F-74C7E5880432}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="2023-01 Compr. Table Exadata" sheetId="2" r:id="rId2"/>
     <sheet name="2023-05 Compr. Table Linux" sheetId="3" r:id="rId3"/>
+    <sheet name="2023-01 Compr. Index Exadata" sheetId="4" r:id="rId4"/>
+    <sheet name="2023-05 Compr. LOB Exadata" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="74">
   <si>
     <t>Benchmark results for Oracle Database</t>
   </si>
@@ -147,17 +149,151 @@
   <si>
     <t>Second try</t>
   </si>
+  <si>
+    <t>Several compression types on multi-column index</t>
+  </si>
+  <si>
+    <t>This test script checks the runtime and the number of consistent gets for an index access.</t>
+  </si>
+  <si>
+    <t>Each block of the index is accessed only once. This is ensured by selecting with a filter where each index partition only has one row hit.</t>
+  </si>
+  <si>
+    <t>Several compression strategies are evaluated and compared this way.</t>
+  </si>
+  <si>
+    <t>To ensure comparability all DB blocks must be accessed in DB cache without disk reads.</t>
+  </si>
+  <si>
+    <t>Legend for columns of following table:</t>
+  </si>
+  <si>
+    <t>- Compression: The compression type of the considered partitioned index</t>
+  </si>
+  <si>
+    <t>- Column order: the order of the three columns: DATUM (8 Byte), WARENGRUPPE_ID (7 Byte), LGR_BEREICH_ID (4 Byte)</t>
+  </si>
+  <si>
+    <t>- Size: Physiscal size of index after creation</t>
+  </si>
+  <si>
+    <t>- Creation time: Time effort for CREATE INDEX</t>
+  </si>
+  <si>
+    <t>- Access time range scan: Avg. time for accessing all partitions with filter Warengruppe_ID=:x AND Lgr_Bereich_ID=:y</t>
+  </si>
+  <si>
+    <t>- Gets/row range scan: Avg. consistent gets per row accessing all partitions with filter Warengruppe_ID=:x AND Lgr_Bereich_ID=:y</t>
+  </si>
+  <si>
+    <t>- Access time unique scan: Access time for one unique scan, average over one access for each of the 2266 partitions containing data for the filter condition</t>
+  </si>
+  <si>
+    <t>- Gets/row unique scan: Avg. consistent gets per row for one unique scan, average over one access for each of the 2266 partitions containing data for the filter condition</t>
+  </si>
+  <si>
+    <t>COMPRESS (1)</t>
+  </si>
+  <si>
+    <t>COMPRESS ADVANCED LOW</t>
+  </si>
+  <si>
+    <t>Datum, Warengruppe_ID, Lgr_Bereich_ID</t>
+  </si>
+  <si>
+    <t>Warengruppe_ID, Lgr_Bereich_ID, Datum</t>
+  </si>
+  <si>
+    <t>Size (GB)</t>
+  </si>
+  <si>
+    <t>Access by range scan</t>
+  </si>
+  <si>
+    <t>Access by unique scan</t>
+  </si>
+  <si>
+    <t>Time (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time (ms)</t>
+  </si>
+  <si>
+    <t>Buffer gets</t>
+  </si>
+  <si>
+    <t>COMPRESS ADVANCED HIGH</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF485156"/>
+        <rFont val="Inter Light"/>
+      </rPr>
+      <t>Beispiel: JSON-Daten in CLOB mit massiv Redundanz in den Feldbezeichnern (0,5 .. 100 KB, durchschnittlich 3,5 KB)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF485156"/>
+        <rFont val="Inter Light"/>
+      </rPr>
+      <t>Insert in partitionierte Tabelle 64fach parallel 1 Mio. Records</t>
+    </r>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>Runtime (Sec.)</t>
+  </si>
+  <si>
+    <t>Size table (MB)</t>
+  </si>
+  <si>
+    <t>Size LOB (MB)</t>
+  </si>
+  <si>
+    <t>Size total (MB)</t>
+  </si>
+  <si>
+    <t>CPU time (Sec.)</t>
+  </si>
+  <si>
+    <t>Table uncumpressed</t>
+  </si>
+  <si>
+    <t>Table compressed (COMPRESS ADVANCED)</t>
+  </si>
+  <si>
+    <t>Creation time (min.)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,16 +316,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFEC6559"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF485156"/>
+      <name val="Inter Light"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -332,71 +485,280 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -762,6 +1124,2077 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Index</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> creation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t> time (Min.), Partition criteria in front or not</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Columns Datum, WG, Lgr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$A$24:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COMPRESS (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COMPRESS ADVANCED LOW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPRESS ADVANCED HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$C$24:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB47-5440-9A28-109240234C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Columns WG, Lgr, Datum"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$A$24:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COMPRESS (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COMPRESS ADVANCED LOW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPRESS ADVANCED HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$I$24:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB47-5440-9A28-109240234C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1098713375"/>
+        <c:axId val="1098715103"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1098713375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098715103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1098715103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098713375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+          <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Access time range scan (ms), Partition criteria in front or not</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Colums Datum, WG, Lgr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$A$24:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COMPRESS (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COMPRESS ADVANCED LOW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPRESS ADVANCED HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$D$24:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-895D-F64A-8F2D-55EDEF6F3560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Columns WG, Lgr, Datum"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$A$24:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COMPRESS (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COMPRESS ADVANCED LOW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPRESS ADVANCED HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$J$24:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-895D-F64A-8F2D-55EDEF6F3560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1098713375"/>
+        <c:axId val="1098715103"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1098713375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098715103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1098715103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098713375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+          <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Access time unique scan (ms), Partition criteria in front or not</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Colums Datum, WG, Lgr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$A$24:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COMPRESS (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COMPRESS ADVANCED LOW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPRESS ADVANCED HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$F$24:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A00-BE4B-879F-D0FE6D655576}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Columns WG, Lgr, Datum"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$A$24:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COMPRESS (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COMPRESS ADVANCED LOW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPRESS ADVANCED HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$L$24:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A00-BE4B-879F-D0FE6D655576}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1098713375"/>
+        <c:axId val="1098715103"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1098713375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098715103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1098715103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098713375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+          <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> of partitioned table and LOB with LOB compression</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Size table (MB)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023-05 Compr. LOB Exadata'!$A$7:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LOW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MEDIUM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-05 Compr. LOB Exadata'!$B$7:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E571-AC49-9731-62BF5EDB7589}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Size LOB (MB)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-05 Compr. LOB Exadata'!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E571-AC49-9731-62BF5EDB7589}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Size total (MB)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-05 Compr. LOB Exadata'!$D$7:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E571-AC49-9731-62BF5EDB7589}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="150609999"/>
+        <c:axId val="149458879"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="150609999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149458879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149458879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="150609999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>Insert times of partitioned table and LOB with LOB compression</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Runtime (Sec.)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023-05 Compr. LOB Exadata'!$A$7:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LOW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MEDIUM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-05 Compr. LOB Exadata'!$E$7:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1C33-1B48-A81E-5BB2E6D49F61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CPU time (Sec.)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023-05 Compr. LOB Exadata'!$A$7:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LOW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MEDIUM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-05 Compr. LOB Exadata'!$F$7:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1C33-1B48-A81E-5BB2E6D49F61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="150609999"/>
+        <c:axId val="149458879"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="150609999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149458879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149458879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="150609999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3166,6 +5599,3672 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Size of index in GB, Partition criteria in front or not</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Columns Datum, WG, Lgr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$A$24:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COMPRESS (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COMPRESS ADVANCED LOW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPRESS ADVANCED HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$B$24:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>409.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>408.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6739-EE42-BC56-2249FD90E515}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Columns WG, Lgr, Datum</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$A$24:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Uncompressed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COMPRESS (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>COMPRESS ADVANCED LOW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPRESS ADVANCED HIGH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023-01 Compr. Index Exadata'!$H$24:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>649.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>569.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6739-EE42-BC56-2249FD90E515}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1098713375"/>
+        <c:axId val="1098715103"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1098713375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098715103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1098715103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098713375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:latin typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+          <a:ea typeface="Inter" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3397,15 +9496,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3465,6 +9564,240 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBCD50CF-264F-18CC-D3AC-E9DB0A5DA687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4624D226-D837-4A40-93F9-C11D09738C48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F623B451-62C4-344C-8133-FDDC53AC1AD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7872B7AE-3379-9143-8BFB-0597C6D3A78A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{832AECA2-5A1B-1C95-0511-E6D59810D7A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59855A83-4552-7042-9D94-FCB612027D53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3776,9 +10109,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3792,11 +10125,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC0EE75-4D97-7149-ABEE-2D40575DB096}">
   <dimension ref="A2:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
@@ -3809,12 +10142,12 @@
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3822,1021 +10155,1031 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="17" thickBot="1">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:18" s="1" customFormat="1">
+      <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="39"/>
+      <c r="G14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11" t="s">
+      <c r="H14" s="39"/>
+      <c r="I14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11" t="s">
+      <c r="J14" s="31"/>
+      <c r="K14" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11" t="s">
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11" t="s">
+      <c r="O14" s="31"/>
+      <c r="P14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="32"/>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15" t="s">
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:18">
+      <c r="A16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="14">
         <v>2638</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21">
+      <c r="C16" s="24"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="14">
         <v>1</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="15">
         <v>17.033000000000001</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="16">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="14">
         <v>0.76400000000000001</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="14">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="15">
         <v>14.832000000000001</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="15">
         <v>20.683</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="16">
         <v>4.07E-2</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="14">
         <v>1.218</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="14">
         <v>336262</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="14">
         <v>0.90700000000000003</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="14">
         <v>0.187</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="17">
         <v>336377</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:18">
+      <c r="A17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="14">
         <v>158</v>
       </c>
-      <c r="C17" s="32">
-        <f>$B$16/B17</f>
+      <c r="C17" s="24">
+        <f t="shared" ref="C17:C22" si="0">$B$16/B17</f>
         <v>16.696202531645568</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="14">
         <v>74</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="15">
         <v>0.48499999999999999</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="14">
         <v>1</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="15">
         <v>17.68</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="16">
         <v>1.24E-2</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="14">
         <v>1.641</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="15">
         <v>15.409000000000001</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="15">
         <v>20</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="16">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="23"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="17"/>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:18">
+      <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="14">
         <v>178</v>
       </c>
-      <c r="C18" s="32">
-        <f>$B$16/B18</f>
+      <c r="C18" s="24">
+        <f t="shared" si="0"/>
         <v>14.820224719101123</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="14">
         <v>83</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="15">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="14">
         <v>1</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="15">
         <v>18</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="16">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="14">
         <v>1.1919999999999999</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="14">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="15">
         <v>14.478999999999999</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="15">
         <v>19.963000000000001</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="16">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="14">
         <v>0.66</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="14">
         <v>22241</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18" s="14">
         <v>0.38800000000000001</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="14">
         <v>0.75600000000000001</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="17">
         <v>22358</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:18">
+      <c r="A19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="14">
         <v>106</v>
       </c>
-      <c r="C19" s="32">
-        <f>$B$16/B19</f>
+      <c r="C19" s="24">
+        <f t="shared" si="0"/>
         <v>24.886792452830189</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="14">
         <v>150</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="15">
         <v>0.19</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="14">
         <v>5.73</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="15">
         <v>15.792</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="16">
         <v>1.23E-2</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="14">
         <v>0.55400000000000005</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="14">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="15">
         <v>14.757999999999999</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="15">
         <v>18.475999999999999</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="16">
         <v>2E-3</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="14">
         <v>8.9300000000000004E-2</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="14">
         <v>21064</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="14">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="14">
         <v>0.11</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="17">
         <v>21200</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:18">
+      <c r="A20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="14">
         <v>54</v>
       </c>
-      <c r="C20" s="32">
-        <f>$B$16/B20</f>
+      <c r="C20" s="24">
+        <f t="shared" si="0"/>
         <v>48.851851851851855</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="14">
         <v>216</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="15">
         <v>0.51</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="14">
         <v>4.68</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="15">
         <v>16.425999999999998</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="16">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="14">
         <v>0.57299999999999995</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="14">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="15">
         <v>14.808999999999999</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="15">
         <v>18.559999999999999</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="16">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="14">
         <v>0.16200000000000001</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="14">
         <v>10885</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="14">
         <v>9.2399999999999996E-2</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="14">
         <v>0.16600000000000001</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="17">
         <v>10942</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="14">
         <v>46</v>
       </c>
-      <c r="C21" s="32">
-        <f>$B$16/B21</f>
+      <c r="C21" s="24">
+        <f t="shared" si="0"/>
         <v>57.347826086956523</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="14">
         <v>204</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="15">
         <v>0.9</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="14">
         <v>8.01</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="15">
         <v>16.716000000000001</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="16">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="14">
         <v>0.58499999999999996</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="15">
         <v>14.821</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="15">
         <v>18.61</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="16">
         <v>2E-3</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="14">
         <v>0.128</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="14">
         <v>7915</v>
       </c>
-      <c r="P21" s="20">
+      <c r="P21" s="14">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="17">
         <v>8046</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:18" ht="17" thickBot="1">
+      <c r="A22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="19">
         <v>46</v>
       </c>
-      <c r="C22" s="34">
-        <f>$B$16/B22</f>
+      <c r="C22" s="26">
+        <f t="shared" si="0"/>
         <v>57.347826086956523</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="19">
         <v>410</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="20">
         <v>16.2</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="19">
         <v>11.34</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="20">
         <v>16.265000000000001</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="21">
         <v>1.06E-2</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="19">
         <v>14.146000000000001</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="19">
         <v>1.04E-2</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="20">
         <v>14.146000000000001</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="20">
         <v>18.8</v>
       </c>
-      <c r="M22" s="27">
+      <c r="M22" s="21">
         <v>1.5E-3</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="19">
         <v>0.63300000000000001</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="19">
         <v>6668</v>
       </c>
-      <c r="P22" s="25">
+      <c r="P22" s="19">
         <v>0.33100000000000002</v>
       </c>
-      <c r="Q22" s="25">
+      <c r="Q22" s="19">
         <v>0.64700000000000002</v>
       </c>
-      <c r="R22" s="28">
+      <c r="R22" s="22">
         <v>6749</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="17" thickBot="1">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:18">
+      <c r="A29" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10" t="s">
+      <c r="F29" s="39"/>
+      <c r="G29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11" t="s">
+      <c r="H29" s="39"/>
+      <c r="I29" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11" t="s">
+      <c r="J29" s="31"/>
+      <c r="K29" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11" t="s">
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11" t="s">
+      <c r="O29" s="31"/>
+      <c r="P29" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="12"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="32"/>
     </row>
-    <row r="30" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15" t="s">
+    <row r="30" spans="1:18" ht="34">
+      <c r="A30" s="36"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M30" s="17" t="s">
+      <c r="M30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="N30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O30" s="17" t="s">
+      <c r="O30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="15" t="s">
+      <c r="P30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="15" t="s">
+      <c r="Q30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R30" s="18" t="s">
+      <c r="R30" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="14">
         <v>2638</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21">
+      <c r="C31" s="24"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="14">
         <v>1</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="25">
         <v>17.033000000000001</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="16">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="14">
         <v>0.76400000000000001</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="14">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="15">
         <v>14.832000000000001</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="15">
         <v>20.683</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="16">
         <v>4.07E-2</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N31" s="14">
         <v>1.218</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="14">
         <v>336262</v>
       </c>
-      <c r="P31" s="20">
+      <c r="P31" s="14">
         <v>0.90700000000000003</v>
       </c>
-      <c r="Q31" s="20">
+      <c r="Q31" s="14">
         <v>0.187</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="17">
         <v>336377</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:18">
+      <c r="A32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="14">
         <v>158</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="24">
         <f>$B$31/B32</f>
         <v>16.696202531645568</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="14">
         <v>74</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="15">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="14">
         <v>1</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="25">
         <v>17.670000000000002</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="16">
         <v>1.24E-2</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="14">
         <v>1.597</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="14">
         <v>0.124</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="15">
         <v>15.11</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="15">
         <v>19.88</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="16">
         <v>2.3E-3</v>
       </c>
-      <c r="N32" s="20">
+      <c r="N32" s="14">
         <v>0.69399999999999995</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="14">
         <v>19433</v>
       </c>
-      <c r="P32" s="20">
+      <c r="P32" s="14">
         <v>0.39800000000000002</v>
       </c>
-      <c r="Q32" s="20">
+      <c r="Q32" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R32" s="23">
+      <c r="R32" s="17">
         <v>19471</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:18">
+      <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="14">
         <v>158</v>
       </c>
-      <c r="C33" s="32">
-        <f t="shared" ref="C33:C37" si="0">$B$31/B33</f>
+      <c r="C33" s="24">
+        <f t="shared" ref="C33:C37" si="1">$B$31/B33</f>
         <v>16.696202531645568</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="14">
         <v>72</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="15">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="14">
         <v>1</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="25">
         <v>18</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="16">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="14">
         <v>1.593</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="14">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="15">
         <v>14.91</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="15">
         <v>19.649999999999999</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="16">
         <v>2.3E-3</v>
       </c>
-      <c r="N33" s="20">
+      <c r="N33" s="14">
         <v>0.73099999999999998</v>
       </c>
-      <c r="O33" s="20">
+      <c r="O33" s="14">
         <v>19627</v>
       </c>
-      <c r="P33" s="20">
+      <c r="P33" s="14">
         <v>0.39900000000000002</v>
       </c>
-      <c r="Q33" s="20">
+      <c r="Q33" s="14">
         <v>0.09</v>
       </c>
-      <c r="R33" s="23">
+      <c r="R33" s="17">
         <v>19667</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:18">
+      <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="14">
         <v>106</v>
       </c>
-      <c r="C34" s="32">
-        <f t="shared" si="0"/>
+      <c r="C34" s="24">
+        <f t="shared" si="1"/>
         <v>24.886792452830189</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="14">
         <v>150</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="15">
         <v>0.183</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="14">
         <v>4.8899999999999997</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="25">
         <v>16.25</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="16">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="14">
         <v>0.59099999999999997</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="15">
         <v>14.593</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="15">
         <v>18.39</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="16">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N34" s="20">
+      <c r="N34" s="14">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="14">
         <v>20015</v>
       </c>
-      <c r="P34" s="20">
+      <c r="P34" s="14">
         <v>0.115</v>
       </c>
-      <c r="Q34" s="20">
+      <c r="Q34" s="14">
         <v>0.127</v>
       </c>
-      <c r="R34" s="23">
+      <c r="R34" s="17">
         <v>20054</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:18">
+      <c r="A35" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="14">
         <v>54</v>
       </c>
-      <c r="C35" s="32">
-        <f t="shared" si="0"/>
+      <c r="C35" s="24">
+        <f t="shared" si="1"/>
         <v>48.851851851851855</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="14">
         <v>216</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="15">
         <v>0.51</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="14">
         <v>4.68</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="25">
         <v>16.425999999999998</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="16">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="14">
         <v>0.57299999999999995</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="14">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="15">
         <v>14.808999999999999</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="15">
         <v>18.559999999999999</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="16">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="N35" s="20">
+      <c r="N35" s="14">
         <v>0.16200000000000001</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="14">
         <v>10885</v>
       </c>
-      <c r="P35" s="20">
+      <c r="P35" s="14">
         <v>9.2399999999999996E-2</v>
       </c>
-      <c r="Q35" s="20">
+      <c r="Q35" s="14">
         <v>0.16600000000000001</v>
       </c>
-      <c r="R35" s="23">
+      <c r="R35" s="17">
         <v>10942</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:18">
+      <c r="A36" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="14">
         <v>46</v>
       </c>
-      <c r="C36" s="32">
-        <f t="shared" si="0"/>
+      <c r="C36" s="24">
+        <f t="shared" si="1"/>
         <v>57.347826086956523</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="14">
         <v>204</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="15">
         <v>0.9</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="14">
         <v>8.01</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="25">
         <v>16.716000000000001</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="16">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="14">
         <v>0.58499999999999996</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="15">
         <v>14.821</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="15">
         <v>18.61</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="16">
         <v>2E-3</v>
       </c>
-      <c r="N36" s="20">
+      <c r="N36" s="14">
         <v>0.128</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O36" s="14">
         <v>7915</v>
       </c>
-      <c r="P36" s="20">
+      <c r="P36" s="14">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="Q36" s="20">
+      <c r="Q36" s="14">
         <v>0.14299999999999999</v>
       </c>
-      <c r="R36" s="23">
+      <c r="R36" s="17">
         <v>8046</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+    <row r="37" spans="1:18" ht="17" thickBot="1">
+      <c r="A37" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="19">
         <v>46</v>
       </c>
-      <c r="C37" s="34">
-        <f t="shared" si="0"/>
+      <c r="C37" s="26">
+        <f t="shared" si="1"/>
         <v>57.347826086956523</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="19">
         <v>410</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="20">
         <v>24.5</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="19">
         <v>12.81</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="27">
         <v>18.350000000000001</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="21">
         <v>1.06E-2</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="19">
         <v>0.622</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="19">
         <v>1.04E-2</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37" s="20">
         <v>15.22</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="20">
         <v>19.95</v>
       </c>
-      <c r="M37" s="27">
+      <c r="M37" s="21">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="N37" s="25">
+      <c r="N37" s="19">
         <v>0.68400000000000005</v>
       </c>
-      <c r="O37" s="25">
+      <c r="O37" s="19">
         <v>6912</v>
       </c>
-      <c r="P37" s="25">
+      <c r="P37" s="19">
         <v>0.39600000000000002</v>
       </c>
-      <c r="Q37" s="25">
+      <c r="Q37" s="19">
         <v>0.72599999999999998</v>
       </c>
-      <c r="R37" s="28">
+      <c r="R37" s="22">
         <v>6957</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="P29:R29"/>
@@ -4845,18 +11188,8 @@
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="P14:R14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4869,10 +11202,10 @@
   <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="A14" sqref="A14:Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
@@ -4884,12 +11217,12 @@
     <col min="16" max="16" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4897,282 +11230,282 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="17" thickBot="1">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:17" s="1" customFormat="1">
+      <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
+      <c r="G14" s="39"/>
+      <c r="H14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
+      <c r="I14" s="31"/>
+      <c r="J14" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11" t="s">
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11" t="s">
+      <c r="N14" s="31"/>
+      <c r="O14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
     </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15" t="s">
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="Q15" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:17">
+      <c r="A16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="14">
         <v>2624</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="14">
         <v>1</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="15">
         <v>13.01</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="16">
         <v>5.04E-2</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="14">
         <v>0.65100000000000002</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="14">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="15">
         <v>18.571999999999999</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="15">
         <v>18.646999999999998</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="14">
         <v>0.93400000000000005</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="14">
         <v>335084</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="14">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="14">
         <v>0.86699999999999999</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="17">
         <v>398099</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:17">
+      <c r="A17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="14">
         <v>168</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="14">
         <v>60</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="15">
         <v>0.308</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="14">
         <v>1</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="15">
         <v>17.242000000000001</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="16">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="14">
         <v>1.431</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="14">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="15">
         <v>13.744</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="15">
         <v>18.977</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="16">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="14">
         <v>0.60899999999999999</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="14">
         <v>20812</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="14">
         <v>0.34399999999999997</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17" s="14">
         <v>0.63300000000000001</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="17">
         <v>21137</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:17" ht="17" thickBot="1">
+      <c r="A18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="19">
         <v>168</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="19">
         <v>60</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="20">
         <v>0.29699999999999999</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="19">
         <v>1</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="20">
         <v>16.956</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="21">
         <v>0.13100000000000001</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="19">
         <v>1.4219999999999999</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="19">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="20">
         <v>14.182</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="20">
         <v>19.933</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="21">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="19">
         <v>0.626</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="19">
         <v>20812</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="19">
         <v>0.38200000000000001</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="19">
         <v>0.71699999999999997</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="22">
         <v>21115</v>
       </c>
     </row>
@@ -5190,4 +11523,622 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0215D55A-1A51-8148-8175-EF12E540A939}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17" thickBot="1"/>
+    <row r="21" spans="1:13" ht="16" customHeight="1">
+      <c r="A21" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="58"/>
+      <c r="B22" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="47"/>
+      <c r="H22" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="44"/>
+    </row>
+    <row r="23" spans="1:13" ht="34">
+      <c r="A23" s="59"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="46"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="62">
+        <v>574</v>
+      </c>
+      <c r="C24" s="63">
+        <v>9</v>
+      </c>
+      <c r="D24" s="64">
+        <v>121</v>
+      </c>
+      <c r="E24" s="63">
+        <v>8.93</v>
+      </c>
+      <c r="F24" s="65">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G24" s="66">
+        <v>3</v>
+      </c>
+      <c r="H24" s="63">
+        <v>574</v>
+      </c>
+      <c r="I24" s="63">
+        <v>5</v>
+      </c>
+      <c r="J24" s="64">
+        <v>16</v>
+      </c>
+      <c r="K24" s="63">
+        <v>4.47</v>
+      </c>
+      <c r="L24" s="65">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M24" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="62">
+        <v>409.2</v>
+      </c>
+      <c r="C25" s="63">
+        <v>13.6</v>
+      </c>
+      <c r="D25" s="64">
+        <v>122</v>
+      </c>
+      <c r="E25" s="63">
+        <v>8.93</v>
+      </c>
+      <c r="F25" s="65">
+        <v>2.69E-2</v>
+      </c>
+      <c r="G25" s="66">
+        <v>3</v>
+      </c>
+      <c r="H25" s="63">
+        <v>649.1</v>
+      </c>
+      <c r="I25" s="63">
+        <v>19.2</v>
+      </c>
+      <c r="J25" s="64">
+        <v>61</v>
+      </c>
+      <c r="K25" s="63">
+        <v>8.93</v>
+      </c>
+      <c r="L25" s="65">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M25" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="62">
+        <v>408.9</v>
+      </c>
+      <c r="C26" s="63">
+        <v>13.7</v>
+      </c>
+      <c r="D26" s="64">
+        <v>111</v>
+      </c>
+      <c r="E26" s="63">
+        <v>8.93</v>
+      </c>
+      <c r="F26" s="65">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G26" s="66">
+        <v>3</v>
+      </c>
+      <c r="H26" s="63">
+        <v>569.4</v>
+      </c>
+      <c r="I26" s="63">
+        <v>18.3</v>
+      </c>
+      <c r="J26" s="64">
+        <v>19.5</v>
+      </c>
+      <c r="K26" s="63">
+        <v>4.47</v>
+      </c>
+      <c r="L26" s="65">
+        <v>0.03</v>
+      </c>
+      <c r="M26" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17" thickBot="1">
+      <c r="A27" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="67">
+        <v>167.1</v>
+      </c>
+      <c r="C27" s="68">
+        <v>20</v>
+      </c>
+      <c r="D27" s="69">
+        <v>67</v>
+      </c>
+      <c r="E27" s="68">
+        <v>13.39</v>
+      </c>
+      <c r="F27" s="70">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G27" s="71">
+        <v>3</v>
+      </c>
+      <c r="H27" s="68">
+        <v>173.4</v>
+      </c>
+      <c r="I27" s="68">
+        <v>20.2</v>
+      </c>
+      <c r="J27" s="69">
+        <v>32</v>
+      </c>
+      <c r="K27" s="68">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="L27" s="70">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M27" s="71">
+        <v>2.923</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E143A631-49D7-2C4E-B020-8B51A30AC596}">
+  <dimension ref="A2:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="21">
+      <c r="A2" s="48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21">
+      <c r="A3" s="48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" thickBot="1">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1836</v>
+      </c>
+      <c r="C7" s="14">
+        <v>7536</v>
+      </c>
+      <c r="D7" s="29">
+        <f>B7+C7</f>
+        <v>9372</v>
+      </c>
+      <c r="E7" s="14">
+        <v>85</v>
+      </c>
+      <c r="F7" s="52">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1896</v>
+      </c>
+      <c r="C8" s="14">
+        <v>304</v>
+      </c>
+      <c r="D8" s="29">
+        <f>B8+C8</f>
+        <v>2200</v>
+      </c>
+      <c r="E8" s="14">
+        <v>87</v>
+      </c>
+      <c r="F8" s="52">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1488</v>
+      </c>
+      <c r="C9" s="14">
+        <v>304</v>
+      </c>
+      <c r="D9" s="29">
+        <f>B9+C9</f>
+        <v>1792</v>
+      </c>
+      <c r="E9" s="14">
+        <v>95</v>
+      </c>
+      <c r="F9" s="52">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" thickBot="1">
+      <c r="A10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1324</v>
+      </c>
+      <c r="C10" s="19">
+        <v>320</v>
+      </c>
+      <c r="D10" s="29">
+        <f>B10+C10</f>
+        <v>1644</v>
+      </c>
+      <c r="E10" s="19">
+        <v>105</v>
+      </c>
+      <c r="F10" s="53">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1">
+      <c r="A13" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14" spans="1:6" ht="34">
+      <c r="A14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1848</v>
+      </c>
+      <c r="C15" s="14">
+        <v>7504</v>
+      </c>
+      <c r="D15" s="29">
+        <f>B15+C15</f>
+        <v>9352</v>
+      </c>
+      <c r="E15" s="14">
+        <v>85</v>
+      </c>
+      <c r="F15" s="52">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1896</v>
+      </c>
+      <c r="C16" s="14">
+        <v>308</v>
+      </c>
+      <c r="D16" s="29">
+        <f>B16+C16</f>
+        <v>2204</v>
+      </c>
+      <c r="E16" s="14">
+        <v>88</v>
+      </c>
+      <c r="F16" s="52">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1492</v>
+      </c>
+      <c r="C17" s="14">
+        <v>320</v>
+      </c>
+      <c r="D17" s="29">
+        <f>B17+C17</f>
+        <v>1812</v>
+      </c>
+      <c r="E17" s="14">
+        <v>97</v>
+      </c>
+      <c r="F17" s="52">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" thickBot="1">
+      <c r="A18" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1308</v>
+      </c>
+      <c r="C18" s="19">
+        <v>304</v>
+      </c>
+      <c r="D18" s="29">
+        <f>B18+C18</f>
+        <v>1612</v>
+      </c>
+      <c r="E18" s="19">
+        <v>105</v>
+      </c>
+      <c r="F18" s="53">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>